--- a/result/ScoreRank.xlsx
+++ b/result/ScoreRank.xlsx
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -557,11 +557,11 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -677,11 +677,11 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -707,11 +707,11 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -827,11 +827,11 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -857,11 +857,11 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -887,11 +887,11 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -917,11 +917,11 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -977,11 +977,11 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1127,11 +1127,11 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1157,11 +1157,11 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1187,11 +1187,11 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1217,11 +1217,11 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1247,11 +1247,11 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1277,11 +1277,11 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1337,11 +1337,11 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>

--- a/result/ScoreRank.xlsx
+++ b/result/ScoreRank.xlsx
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -497,11 +497,11 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -704,14 +704,14 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -734,14 +734,14 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -887,11 +887,11 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -911,17 +911,17 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1037,11 +1037,11 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -1127,11 +1127,11 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1178,20 +1178,20 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1217,11 +1217,11 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1262,26 +1262,26 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1307,11 +1307,11 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -1337,11 +1337,11 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
